--- a/nuevo.xlsx
+++ b/nuevo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSALAZAR.ASODATOS\Documents\Asodatos\Proyectos\EnvioMails\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Salazar\Documents\Cursos\Eclipse Oxigen\envio-mails\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D51A9B5-A336-4116-BC79-2B6651C38EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,13 +33,13 @@
     <t>RSK000201</t>
   </si>
   <si>
-    <t>sistemas@asodatos.com</t>
+    <t>davidsp302@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,21 +350,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
